--- a/Test/MC_Ssf/T1/Sensors_data_1000010.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000010.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8300026039557465</v>
+        <v>0.9943133999078039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007488822457192778</v>
+        <v>0.000250509357592905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2781173556060785</v>
+        <v>0.06348877709451295</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.948508911608686</v>
+        <v>0.9562004002613035</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002089558033532945</v>
+        <v>0.001777430005052282</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.004307015851203744</v>
+        <v>-0.003158739616196726</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9836774335683253</v>
+        <v>0.9864560061853909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007287166668107796</v>
+        <v>0.0006046680262691472</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0002685033902878331</v>
+        <v>-0.01767690455682214</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.169344939130903</v>
+        <v>-0.7873112693324915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07305936115089477</v>
+        <v>0.06019320263910653</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6534038535766518</v>
+        <v>0.4350725855452367</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
